--- a/dataset/models/input/UseCase.xlsx
+++ b/dataset/models/input/UseCase.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t xml:space="preserve">Project Type</t>
   </si>
@@ -59,12 +59,6 @@
   </si>
   <si>
     <t xml:space="preserve">End</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Battery Capacity Degredation per Annum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">%</t>
   </si>
   <si>
     <t xml:space="preserve">Hours of Sustained Output</t>
@@ -86,16 +80,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="166" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00%"/>
-    <numFmt numFmtId="168" formatCode="#,##0.0"/>
-    <numFmt numFmtId="169" formatCode="#,##0"/>
-    <numFmt numFmtId="170" formatCode="#,##0%"/>
-    <numFmt numFmtId="171" formatCode="#,##0.00"/>
-    <numFmt numFmtId="172" formatCode="#,##0.000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0"/>
+    <numFmt numFmtId="168" formatCode="#,##0"/>
+    <numFmt numFmtId="169" formatCode="#,##0%"/>
+    <numFmt numFmtId="170" formatCode="#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -212,7 +205,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -253,31 +246,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -285,11 +270,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -301,19 +286,19 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="171" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -394,13 +379,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="41.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="22.6"/>
@@ -475,11 +460,11 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="11" t="n">
-        <v>-0.063</v>
+      <c r="B7" s="10" t="n">
+        <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>14</v>
@@ -489,8 +474,8 @@
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="12" t="n">
-        <v>5</v>
+      <c r="B8" s="10" t="n">
+        <v>150</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>16</v>
@@ -500,169 +485,158 @@
       <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="12" t="n">
-        <v>150</v>
+      <c r="B9" s="10" t="n">
+        <v>24</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="12" t="n">
-        <v>24</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
-      <c r="C13" s="7"/>
+      <c r="C13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20"/>
+    <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="19"/>
       <c r="B19" s="14"/>
-      <c r="C19" s="7"/>
-    </row>
-    <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="21"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
+      <c r="C19" s="15"/>
+    </row>
+    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="7"/>
+      <c r="F21" s="20"/>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="7"/>
-      <c r="F22" s="22"/>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="7"/>
     </row>
-    <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="20"/>
+    <row r="26" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="19"/>
       <c r="B26" s="14"/>
-      <c r="C26" s="7"/>
-    </row>
-    <row r="27" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="21"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
-    </row>
-    <row r="28" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13"/>
-      <c r="B28" s="15"/>
+      <c r="C26" s="15"/>
+    </row>
+    <row r="27" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="11"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="7"/>
+    </row>
+    <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="11"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="7"/>
     </row>
-    <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="20"/>
+    <row r="30" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="19"/>
       <c r="B30" s="14"/>
-      <c r="C30" s="7"/>
-    </row>
-    <row r="31" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="21"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="17"/>
+      <c r="C30" s="15"/>
+    </row>
+    <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="7"/>
     </row>
-    <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
+    <row r="35" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="11"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13"/>
-      <c r="B37" s="23"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="12"/>
       <c r="C37" s="7"/>
     </row>
     <row r="38" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="20"/>
-      <c r="B38" s="14"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="22"/>
       <c r="C38" s="7"/>
     </row>
     <row r="39" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13"/>
-      <c r="B39" s="24"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="7"/>
     </row>
     <row r="40" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="20"/>
-      <c r="B40" s="25"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="22"/>
       <c r="C40" s="7"/>
-    </row>
-    <row r="41" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="20"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/dataset/models/input/UseCase.xlsx
+++ b/dataset/models/input/UseCase.xlsx
@@ -196,6 +196,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
@@ -207,68 +210,65 @@
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="166" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="167" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="167" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="166" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="167" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="167" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -581,11 +581,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="26" width="41.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="27" width="22.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="28" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="29" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="29" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="25" width="41.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="26" width="22.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="27" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="28" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="28" width="12.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="29" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -601,7 +601,7 @@
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="F1" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
@@ -615,13 +615,13 @@
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="F2" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -629,49 +629,49 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="F3" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6">
-        <v>25569.0421875</v>
+      <c r="B4" s="7">
+        <v>44927</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="F4" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6">
-        <v>25569.0421875</v>
+      <c r="B5" s="7">
+        <v>44927</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="F5" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="6">
-        <v>25569.04226851852</v>
+      <c r="B6" s="7">
+        <v>52232</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="F6" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
@@ -685,7 +685,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="F7" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1" t="s">
@@ -699,7 +699,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="F8" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1" t="s">
@@ -713,263 +713,263 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="F9" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25" customFormat="1" s="9">
+      <c r="F10" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="9">
       <c r="A11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1"/>
-      <c r="B12" s="14"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="F12" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="F13" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1"/>
-      <c r="B14" s="14"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="F14" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1"/>
-      <c r="B15" s="18"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="F15" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1"/>
-      <c r="B16" s="19"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="F16" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1"/>
-      <c r="B17" s="14"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="F17" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="20"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="F18" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
-      <c r="A19" s="21"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="F19" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1"/>
-      <c r="B20" s="14"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="3"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="F20" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1"/>
-      <c r="B21" s="14"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+      <c r="F21" s="21"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1"/>
-      <c r="B22" s="14"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+      <c r="F22" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1"/>
-      <c r="B23" s="14"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+      <c r="F23" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="1"/>
-      <c r="B24" s="14"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="14"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="19"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="3"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
+      <c r="A26" s="20"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+      <c r="F26" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="1"/>
-      <c r="B27" s="15"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="3"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+      <c r="F27" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1"/>
-      <c r="B28" s="14"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="3"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="14"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="19"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="21"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="17"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
+      <c r="A30" s="20"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+      <c r="F30" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1"/>
-      <c r="B31" s="14"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+      <c r="F31" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="1"/>
-      <c r="B32" s="14"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="3"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+      <c r="F32" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="1"/>
-      <c r="B33" s="14"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="3"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
+      <c r="F33" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="14"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="3"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="F34" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="14"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="3"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
+      <c r="F35" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="23"/>
+      <c r="B36" s="22"/>
       <c r="C36" s="3"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
+      <c r="F36" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
-      <c r="A37" s="20"/>
-      <c r="B37" s="14"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="3"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
+      <c r="F37" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="24"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="3"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="F38" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
-      <c r="A39" s="20"/>
-      <c r="B39" s="25"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="3"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
+      <c r="F39" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
-      <c r="A40" s="20"/>
-      <c r="B40" s="24"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="23"/>
       <c r="C40" s="3"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
+      <c r="F40" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
